--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622563.369319148</v>
+        <v>1591479.925684352</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421158.826257673</v>
+        <v>1421158.826257672</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6437773.152925625</v>
+        <v>6437773.152925629</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>250.0265873213353</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>353.8845894477263</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>69.83484498490527</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>168.5052963341061</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>224.7085544566638</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.7291828791257</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -952,10 +952,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>296.0145822180976</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>180.1335399378839</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -992,7 +992,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1040,7 +1040,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>57.02543056809535</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.7154902998713</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>79.49039382018367</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>136.6071923657898</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.3270142739453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>88.93351440885131</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.67380898767792</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>18.7154902998713</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.70749809385202</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>318.4416004974941</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.16336638308671</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>24.90540034486072</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.7358780754949</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>193.1540682918321</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -1675,7 +1675,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>91.13298959426486</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.2002140016983</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.872416748260566</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>176.2318886370065</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>150.3323386958136</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>198.863263413307</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>201.2029356027857</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>410.9480201594387</v>
       </c>
       <c r="H20" t="n">
-        <v>314.6778093624843</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>27.23435056966955</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.13510798269154</v>
+        <v>26.13510798269153</v>
       </c>
       <c r="S21" t="n">
         <v>141.3836471952285</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>97.134986940793</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>121.4556207949447</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>376.9367878146575</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>103.1449658470836</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>410.9480201594387</v>
       </c>
       <c r="H23" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>132.732122105711</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7812841491240761</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.3466469410015</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>121.4556207949447</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>69.32853453924346</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>12.70352540491902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -2623,7 +2623,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.7682711911971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>13.24710486781419</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>383.9768772232298</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>319.3037704263417</v>
@@ -2848,16 +2848,16 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>171.0349861257875</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>140.2948274247356</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2939940365704</v>
+        <v>279.9390043612343</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.89330684974195</v>
+        <v>134.0390497144316</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -3094,7 +3094,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>168.6760949109272</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>176.8096753679371</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3280,13 +3280,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.549265215617543</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T35" t="n">
         <v>217.7600659609929</v>
@@ -3328,13 +3328,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>108.5037463407996</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>126.9088823577624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.79726647768435</v>
+        <v>93.79726647768436</v>
       </c>
       <c r="I36" t="n">
-        <v>49.3703437699577</v>
+        <v>49.37034376995771</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.13510798269152</v>
+        <v>26.13510798269153</v>
       </c>
       <c r="S36" t="n">
         <v>141.3836471952285</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>32.65580012386836</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>94.42348381849979</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -3520,7 +3520,7 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H38" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.23435056966954</v>
       </c>
       <c r="S38" t="n">
         <v>162.6847975205958</v>
@@ -3559,19 +3559,19 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>124.6742960381032</v>
       </c>
       <c r="W38" t="n">
-        <v>105.4678947209761</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>143.5092088403147</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>121.4556207949449</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>5.401479233092082</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.19658749892272</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>79.60979477401889</v>
       </c>
       <c r="W43" t="n">
-        <v>20.86640061708211</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>154.4369762537721</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>97.30401291503699</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>87.34123054222547</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.17739880170303</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.3682942696275</v>
+        <v>316.750733661422</v>
       </c>
       <c r="C2" t="n">
-        <v>744.3682942696275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D2" t="n">
-        <v>744.3682942696275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E2" t="n">
-        <v>744.3682942696275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
-        <v>386.9091130092979</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
         <v>42.02425610119923</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.983829690315</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W2" t="n">
-        <v>1913.983829690315</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X2" t="n">
-        <v>1531.953689211809</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.411833787647</v>
+        <v>710.7942731794411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>792.6085166265278</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>630.9048438674826</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
         <v>210.3443988644402</v>
@@ -4409,22 +4409,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1203796867518</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>554.9422248568675</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.975578367094</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N3" t="n">
-        <v>1551.241224490216</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4439,22 +4439,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>2101.212805059961</v>
+        <v>2030.672557600461</v>
       </c>
       <c r="U3" t="n">
-        <v>1882.718012658271</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V3" t="n">
-        <v>1712.510642623821</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W3" t="n">
-        <v>1471.194773857131</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.277785734925</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1874.234467224947</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="C4" t="n">
-        <v>1874.234467224947</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="D4" t="n">
-        <v>1721.16257405271</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="E4" t="n">
-        <v>1569.153559814029</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="F4" t="n">
-        <v>1569.153559814029</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G4" t="n">
-        <v>1569.153559814029</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>1874.234467224947</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>1874.234467224947</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>1874.234467224947</v>
+        <v>370.3166499540754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1045.096632128045</v>
+        <v>1022.989986754833</v>
       </c>
       <c r="C5" t="n">
-        <v>1045.096632128045</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.096632128045</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="E5" t="n">
-        <v>1045.096632128045</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="F5" t="n">
         <v>630.9454414382152</v>
@@ -4600,19 +4600,19 @@
         <v>1598.98659691718</v>
       </c>
       <c r="U5" t="n">
-        <v>1344.101260631174</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V5" t="n">
-        <v>1045.096632128045</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W5" t="n">
-        <v>1045.096632128045</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X5" t="n">
-        <v>1045.096632128045</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1045.096632128045</v>
+        <v>1417.033526272852</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821.3991591499413</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
-        <v>659.695486390896</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>520.8568493811081</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>373.8288394379794</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>239.1350413878537</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
         <v>110.4065414111382</v>
@@ -4649,19 +4649,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N6" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
         <v>1943.441175274367</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V6" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>1013.920485500362</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>821.3991591499413</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.5617199615099</v>
+        <v>271.6974642253462</v>
       </c>
       <c r="C7" t="n">
-        <v>424.5617199615099</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D7" t="n">
-        <v>424.5617199615099</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E7" t="n">
-        <v>424.5617199615099</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F7" t="n">
-        <v>424.5617199615099</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I7" t="n">
         <v>102.0814946870265</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X7" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y7" t="n">
-        <v>424.5617199615099</v>
+        <v>455.2528329097261</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.1598509593769</v>
+        <v>1182.99406236632</v>
       </c>
       <c r="C8" t="n">
-        <v>606.2260922921841</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4810,13 +4810,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037333</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4831,25 +4831,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="V8" t="n">
-        <v>1764.233530955903</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="W8" t="n">
-        <v>1764.233530955903</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="X8" t="n">
-        <v>1382.203390477396</v>
+        <v>1970.579457308501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1382.203390477396</v>
+        <v>1577.037601884339</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D9" t="n">
-        <v>300.1762316006536</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
-        <v>300.1762316006536</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F9" t="n">
-        <v>300.1762316006536</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4886,49 +4886,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="C10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="D10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="E10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="F10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="G10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H10" t="n">
         <v>246.284539084348</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>555.178965690696</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="T10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="U10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="V10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="W10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="X10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.9045481628106</v>
+        <v>405.6571843050742</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>910.4912794983221</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="C11" t="n">
-        <v>910.4912794983221</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="D11" t="n">
-        <v>537.6673147255457</v>
+        <v>1433.452296397849</v>
       </c>
       <c r="E11" t="n">
-        <v>537.6673147255457</v>
+        <v>1038.666576503955</v>
       </c>
       <c r="F11" t="n">
-        <v>537.6673147255457</v>
+        <v>624.5153858141257</v>
       </c>
       <c r="G11" t="n">
-        <v>537.6673147255457</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H11" t="n">
         <v>208.797208433249</v>
@@ -5041,13 +5041,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5068,25 +5068,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2500.567087707345</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T11" t="n">
-        <v>2277.89702105786</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U11" t="n">
-        <v>2023.042549505049</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V11" t="n">
-        <v>1686.063275400991</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W11" t="n">
-        <v>1686.063275400991</v>
+        <v>2221.03769134003</v>
       </c>
       <c r="X11" t="n">
-        <v>1304.033134922484</v>
+        <v>2221.03769134003</v>
       </c>
       <c r="Y11" t="n">
-        <v>910.4912794983221</v>
+        <v>1827.495835915868</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5120,16 +5120,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>68.1000180971543</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219088</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N12" t="n">
         <v>1578.032071547365</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
       <c r="C13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
       <c r="D13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
       <c r="E13" t="n">
-        <v>572.8610754157404</v>
+        <v>76.01088751852848</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3804204415175</v>
+        <v>76.01088751852848</v>
       </c>
       <c r="G13" t="n">
-        <v>251.6337325188026</v>
+        <v>76.01088751852848</v>
       </c>
       <c r="H13" t="n">
-        <v>189.8525543540686</v>
+        <v>76.01088751852848</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
@@ -5226,25 +5226,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U13" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="V13" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="W13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
       <c r="X13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.8700896544216</v>
+        <v>228.0199017572097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208.797208433249</v>
+        <v>1348.171212000316</v>
       </c>
       <c r="C14" t="n">
-        <v>208.797208433249</v>
+        <v>1348.171212000316</v>
       </c>
       <c r="D14" t="n">
-        <v>208.797208433249</v>
+        <v>1348.171212000316</v>
       </c>
       <c r="E14" t="n">
-        <v>208.797208433249</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="F14" t="n">
-        <v>208.797208433249</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G14" t="n">
-        <v>208.797208433249</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H14" t="n">
         <v>208.797208433249</v>
@@ -5278,52 +5278,52 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P14" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q14" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2253.622605463969</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>1998.768133911158</v>
+        <v>2287.84140210792</v>
       </c>
       <c r="V14" t="n">
-        <v>1661.788859807099</v>
+        <v>2092.736282621221</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.2539296647</v>
+        <v>1730.201352478822</v>
       </c>
       <c r="X14" t="n">
-        <v>917.2237891861937</v>
+        <v>1348.171212000316</v>
       </c>
       <c r="Y14" t="n">
-        <v>523.6819337620317</v>
+        <v>1348.171212000316</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.3170860732707</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.289076130142</v>
       </c>
       <c r="F15" t="n">
         <v>338.5952780800163</v>
@@ -5357,25 +5357,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L15" t="n">
-        <v>661.4480243753518</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.744201156452</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N15" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.69587366073</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>319.2795621623188</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="C16" t="n">
-        <v>319.2795621623188</v>
+        <v>372.0812603701524</v>
       </c>
       <c r="D16" t="n">
-        <v>166.2076689900815</v>
+        <v>372.0812603701524</v>
       </c>
       <c r="E16" t="n">
-        <v>166.2076689900815</v>
+        <v>372.0812603701524</v>
       </c>
       <c r="F16" t="n">
-        <v>50.85391747321462</v>
+        <v>219.6006053959295</v>
       </c>
       <c r="G16" t="n">
         <v>50.85391747321462</v>
@@ -5472,16 +5472,16 @@
         <v>724.8700896544216</v>
       </c>
       <c r="V16" t="n">
-        <v>724.8700896544216</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="W16" t="n">
-        <v>724.8700896544216</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="X16" t="n">
-        <v>724.8700896544216</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="Y16" t="n">
-        <v>502.8349308466986</v>
+        <v>464.1347852128442</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1348.64052277675</v>
+        <v>819.7819522710274</v>
       </c>
       <c r="C17" t="n">
-        <v>966.7067641095573</v>
+        <v>437.8481936038348</v>
       </c>
       <c r="D17" t="n">
-        <v>593.8827993367809</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F17" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G17" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H17" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I17" t="n">
         <v>65.02422883105832</v>
@@ -5539,28 +5539,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R17" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S17" t="n">
-        <v>3217.770262443896</v>
+        <v>3086.883363249284</v>
       </c>
       <c r="T17" t="n">
-        <v>3217.770262443896</v>
+        <v>2866.923700662422</v>
       </c>
       <c r="U17" t="n">
-        <v>3217.770262443896</v>
+        <v>2688.911691938173</v>
       </c>
       <c r="V17" t="n">
-        <v>2880.790988339837</v>
+        <v>2351.932417834114</v>
       </c>
       <c r="W17" t="n">
-        <v>2518.256058197438</v>
+        <v>1989.397487691715</v>
       </c>
       <c r="X17" t="n">
-        <v>2136.225917718931</v>
+        <v>1607.367347213209</v>
       </c>
       <c r="Y17" t="n">
-        <v>1742.684062294769</v>
+        <v>1213.825491789047</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K18" t="n">
-        <v>65.02422883105832</v>
+        <v>379.6152249884421</v>
       </c>
       <c r="L18" t="n">
-        <v>545.2741224646322</v>
+        <v>859.865118622016</v>
       </c>
       <c r="M18" t="n">
-        <v>1163.83961130935</v>
+        <v>1478.430607466733</v>
       </c>
       <c r="N18" t="n">
-        <v>1812.171591051997</v>
+        <v>1593.529722307103</v>
       </c>
       <c r="O18" t="n">
-        <v>2329.760459016175</v>
+        <v>2111.11859027128</v>
       </c>
       <c r="P18" t="n">
         <v>2513.850170066159</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.9717005110895</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C19" t="n">
-        <v>369.3557309727697</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D19" t="n">
-        <v>369.3557309727697</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E19" t="n">
-        <v>369.3557309727697</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F19" t="n">
-        <v>216.8750759985468</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G19" t="n">
-        <v>216.8750759985468</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H19" t="n">
         <v>65.02422883105832</v>
@@ -5700,25 +5700,25 @@
         <v>966.8604463484278</v>
       </c>
       <c r="S19" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T19" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="U19" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="V19" t="n">
-        <v>761.0068593188124</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="W19" t="n">
-        <v>761.0068593188124</v>
+        <v>680.704044865827</v>
       </c>
       <c r="X19" t="n">
-        <v>761.0068593188124</v>
+        <v>449.4515807612028</v>
       </c>
       <c r="Y19" t="n">
-        <v>538.9717005110895</v>
+        <v>248.5795975154381</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2081.595906132228</v>
+        <v>1097.50971827061</v>
       </c>
       <c r="C20" t="n">
-        <v>1699.662147465035</v>
+        <v>1097.50971827061</v>
       </c>
       <c r="D20" t="n">
-        <v>1326.838182692259</v>
+        <v>1097.50971827061</v>
       </c>
       <c r="E20" t="n">
-        <v>932.0524627983655</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F20" t="n">
-        <v>932.0524627983655</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G20" t="n">
-        <v>516.9534525363061</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H20" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I20" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J20" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K20" t="n">
         <v>586.0546590956333</v>
@@ -5776,28 +5776,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R20" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S20" t="n">
-        <v>3251.211441552916</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T20" t="n">
-        <v>3251.211441552916</v>
+        <v>2839.414255642554</v>
       </c>
       <c r="U20" t="n">
-        <v>3251.211441552916</v>
+        <v>2584.609317459248</v>
       </c>
       <c r="V20" t="n">
-        <v>3251.211441552916</v>
+        <v>2247.63004335519</v>
       </c>
       <c r="W20" t="n">
-        <v>3251.211441552916</v>
+        <v>1885.095113212791</v>
       </c>
       <c r="X20" t="n">
-        <v>2869.181301074409</v>
+        <v>1885.095113212791</v>
       </c>
       <c r="Y20" t="n">
-        <v>2475.639445650247</v>
+        <v>1491.553257788629</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J21" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K21" t="n">
-        <v>65.02422883105832</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L21" t="n">
-        <v>545.2741224646322</v>
+        <v>504.3199297671897</v>
       </c>
       <c r="M21" t="n">
-        <v>945.1977425644553</v>
+        <v>1122.885418611907</v>
       </c>
       <c r="N21" t="n">
-        <v>1593.529722307103</v>
+        <v>1771.217398354555</v>
       </c>
       <c r="O21" t="n">
-        <v>2111.11859027128</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="P21" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q21" t="n">
         <v>2513.850170066159</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.02422883105832</v>
+        <v>484.0899830991274</v>
       </c>
       <c r="C22" t="n">
-        <v>65.02422883105832</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="D22" t="n">
-        <v>65.02422883105832</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="E22" t="n">
-        <v>65.02422883105832</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="F22" t="n">
-        <v>65.02422883105832</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="G22" t="n">
         <v>65.02422883105832</v>
@@ -5940,22 +5940,22 @@
         <v>966.8604463484278</v>
       </c>
       <c r="T22" t="n">
-        <v>735.6076290620449</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="U22" t="n">
-        <v>448.4419785200546</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="V22" t="n">
-        <v>187.7066740784772</v>
+        <v>706.1251419068503</v>
       </c>
       <c r="W22" t="n">
-        <v>65.02422883105832</v>
+        <v>706.1251419068503</v>
       </c>
       <c r="X22" t="n">
-        <v>65.02422883105832</v>
+        <v>706.1251419068503</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.02422883105832</v>
+        <v>484.0899830991274</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1317.469380857471</v>
+        <v>1909.253593144836</v>
       </c>
       <c r="C23" t="n">
-        <v>936.7251507416557</v>
+        <v>1527.319834477643</v>
       </c>
       <c r="D23" t="n">
-        <v>936.7251507416557</v>
+        <v>1423.13300028867</v>
       </c>
       <c r="E23" t="n">
-        <v>936.7251507416557</v>
+        <v>1028.347280394777</v>
       </c>
       <c r="F23" t="n">
-        <v>936.7251507416557</v>
+        <v>614.196089704947</v>
       </c>
       <c r="G23" t="n">
-        <v>521.6261404795964</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H23" t="n">
         <v>199.0970794428877</v>
@@ -5989,10 +5989,10 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J23" t="n">
-        <v>220.6214864603398</v>
+        <v>220.6214864603401</v>
       </c>
       <c r="K23" t="n">
-        <v>586.054659095633</v>
+        <v>586.0546590956333</v>
       </c>
       <c r="L23" t="n">
         <v>1089.376830460402</v>
@@ -6022,19 +6022,19 @@
         <v>3059.373918229416</v>
       </c>
       <c r="U23" t="n">
-        <v>2804.56898004611</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="V23" t="n">
-        <v>2467.589705942051</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="W23" t="n">
-        <v>2105.054775799652</v>
+        <v>2696.838988087017</v>
       </c>
       <c r="X23" t="n">
-        <v>2105.054775799652</v>
+        <v>2696.838988087017</v>
       </c>
       <c r="Y23" t="n">
-        <v>1711.51292037549</v>
+        <v>2303.297132662855</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K24" t="n">
-        <v>65.02422883105832</v>
+        <v>220.7008733849874</v>
       </c>
       <c r="L24" t="n">
-        <v>545.2741224646322</v>
+        <v>700.9507670185614</v>
       </c>
       <c r="M24" t="n">
-        <v>1163.83961130935</v>
+        <v>720.1538388170291</v>
       </c>
       <c r="N24" t="n">
-        <v>1812.171591051997</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O24" t="n">
-        <v>2329.760459016175</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P24" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q24" t="n">
         <v>2513.850170066159</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G25" t="n">
-        <v>351.0351983245031</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H25" t="n">
-        <v>195.6705550360825</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I25" t="n">
         <v>65.02422883105832</v>
@@ -6168,31 +6168,31 @@
         <v>966.8604463484278</v>
       </c>
       <c r="Q25" t="n">
-        <v>966.0712704402216</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R25" t="n">
-        <v>836.8189957592863</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S25" t="n">
-        <v>630.9654087296709</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T25" t="n">
-        <v>519.5041491933058</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="U25" t="n">
-        <v>519.5041491933058</v>
+        <v>448.4419785200546</v>
       </c>
       <c r="V25" t="n">
-        <v>519.5041491933058</v>
+        <v>187.7066740784772</v>
       </c>
       <c r="W25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="X25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="Y25" t="n">
-        <v>519.5041491933058</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1719.060975989829</v>
+        <v>1762.79171346658</v>
       </c>
       <c r="C26" t="n">
-        <v>1337.127217322636</v>
+        <v>1380.857954799387</v>
       </c>
       <c r="D26" t="n">
-        <v>964.30325254986</v>
+        <v>1008.033990026611</v>
       </c>
       <c r="E26" t="n">
-        <v>964.30325254986</v>
+        <v>613.2482701327174</v>
       </c>
       <c r="F26" t="n">
-        <v>550.1520618600302</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="G26" t="n">
-        <v>135.0530515979709</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H26" t="n">
-        <v>135.0530515979709</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="I26" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J26" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K26" t="n">
-        <v>586.0546590956334</v>
+        <v>586.0546590956333</v>
       </c>
       <c r="L26" t="n">
         <v>1089.376830460402</v>
@@ -6259,19 +6259,19 @@
         <v>3251.211441552916</v>
       </c>
       <c r="U26" t="n">
-        <v>3251.211441552916</v>
+        <v>3238.379597709563</v>
       </c>
       <c r="V26" t="n">
-        <v>3251.211441552916</v>
+        <v>2901.400323605505</v>
       </c>
       <c r="W26" t="n">
-        <v>2888.676511410517</v>
+        <v>2538.865393463106</v>
       </c>
       <c r="X26" t="n">
-        <v>2506.64637093201</v>
+        <v>2156.835252984599</v>
       </c>
       <c r="Y26" t="n">
-        <v>2113.104515507848</v>
+        <v>2156.835252984599</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J27" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K27" t="n">
-        <v>65.02422883105832</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L27" t="n">
-        <v>545.2741224646322</v>
+        <v>504.3199297671897</v>
       </c>
       <c r="M27" t="n">
-        <v>1163.83961130935</v>
+        <v>1122.885418611907</v>
       </c>
       <c r="N27" t="n">
-        <v>1812.171591051997</v>
+        <v>1771.217398354555</v>
       </c>
       <c r="O27" t="n">
-        <v>2329.760459016175</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="P27" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q27" t="n">
         <v>2513.850170066159</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2349.375224035547</v>
+        <v>387.120853343601</v>
       </c>
       <c r="C28" t="n">
-        <v>2349.375224035547</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="D28" t="n">
-        <v>2349.375224035547</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="E28" t="n">
-        <v>2349.375224035547</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="F28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K28" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L28" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M28" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N28" t="n">
-        <v>2973.892135252363</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O28" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R28" t="n">
-        <v>3251.211441552916</v>
+        <v>837.6081716674923</v>
       </c>
       <c r="S28" t="n">
-        <v>3251.211441552916</v>
+        <v>631.754584637877</v>
       </c>
       <c r="T28" t="n">
-        <v>3251.211441552916</v>
+        <v>400.5017673514941</v>
       </c>
       <c r="U28" t="n">
-        <v>3251.211441552916</v>
+        <v>400.5017673514941</v>
       </c>
       <c r="V28" t="n">
-        <v>3251.211441552916</v>
+        <v>387.120853343601</v>
       </c>
       <c r="W28" t="n">
-        <v>2965.055040070315</v>
+        <v>387.120853343601</v>
       </c>
       <c r="X28" t="n">
-        <v>2733.802575965691</v>
+        <v>387.120853343601</v>
       </c>
       <c r="Y28" t="n">
-        <v>2511.767417157968</v>
+        <v>387.120853343601</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2079.338305720241</v>
+        <v>1289.235825146266</v>
       </c>
       <c r="C29" t="n">
-        <v>1697.404547053048</v>
+        <v>1289.235825146266</v>
       </c>
       <c r="D29" t="n">
-        <v>1324.580582280272</v>
+        <v>916.4118603734896</v>
       </c>
       <c r="E29" t="n">
-        <v>1324.580582280272</v>
+        <v>521.6261404795964</v>
       </c>
       <c r="F29" t="n">
-        <v>936.7251507416557</v>
+        <v>521.6261404795964</v>
       </c>
       <c r="G29" t="n">
         <v>521.6261404795964</v>
@@ -6496,19 +6496,19 @@
         <v>2866.923700662422</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.923700662422</v>
+        <v>2612.118762479116</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.923700662422</v>
+        <v>2612.118762479116</v>
       </c>
       <c r="W29" t="n">
-        <v>2866.923700662422</v>
+        <v>2249.583832336717</v>
       </c>
       <c r="X29" t="n">
-        <v>2866.923700662422</v>
+        <v>2076.821220088447</v>
       </c>
       <c r="Y29" t="n">
-        <v>2473.38184523826</v>
+        <v>1683.279364664285</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J30" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K30" t="n">
-        <v>65.02422883105832</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L30" t="n">
-        <v>545.2741224646322</v>
+        <v>492.6385617161666</v>
       </c>
       <c r="M30" t="n">
-        <v>1163.83961130935</v>
+        <v>1111.204050560884</v>
       </c>
       <c r="N30" t="n">
-        <v>1812.171591051997</v>
+        <v>1759.536030303532</v>
       </c>
       <c r="O30" t="n">
-        <v>2329.760459016175</v>
+        <v>2277.124898267709</v>
       </c>
       <c r="P30" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q30" t="n">
         <v>2513.850170066159</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="C31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="D31" t="n">
-        <v>537.9828489127651</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="E31" t="n">
-        <v>385.9738346740839</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="F31" t="n">
-        <v>233.4931796998611</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G31" t="n">
         <v>65.02422883105832</v>
@@ -6648,25 +6648,25 @@
         <v>966.8604463484278</v>
       </c>
       <c r="S31" t="n">
-        <v>966.8604463484278</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="T31" t="n">
-        <v>966.8604463484278</v>
+        <v>761.0068593188124</v>
       </c>
       <c r="U31" t="n">
-        <v>679.6947958064375</v>
+        <v>478.2401882468586</v>
       </c>
       <c r="V31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="W31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="X31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
       <c r="Y31" t="n">
-        <v>679.6947958064375</v>
+        <v>217.5048838052812</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1350.876341431485</v>
+        <v>1628.71886285475</v>
       </c>
       <c r="C32" t="n">
-        <v>1350.876341431485</v>
+        <v>1246.785104187558</v>
       </c>
       <c r="D32" t="n">
-        <v>1350.876341431485</v>
+        <v>873.9611394147812</v>
       </c>
       <c r="E32" t="n">
-        <v>1350.876341431485</v>
+        <v>479.175419520888</v>
       </c>
       <c r="F32" t="n">
-        <v>936.7251507416557</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G32" t="n">
-        <v>521.6261404795964</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H32" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I32" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6214864603398</v>
+        <v>220.6214864603401</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956334</v>
       </c>
       <c r="L32" t="n">
         <v>1089.376830460402</v>
@@ -6733,19 +6733,19 @@
         <v>3251.211441552916</v>
       </c>
       <c r="U32" t="n">
-        <v>3220.006081098631</v>
+        <v>3115.818462043389</v>
       </c>
       <c r="V32" t="n">
-        <v>2883.026806994572</v>
+        <v>2778.83918793933</v>
       </c>
       <c r="W32" t="n">
-        <v>2520.491876852173</v>
+        <v>2416.304257796931</v>
       </c>
       <c r="X32" t="n">
-        <v>2138.461736373667</v>
+        <v>2416.304257796931</v>
       </c>
       <c r="Y32" t="n">
-        <v>1744.919880949504</v>
+        <v>2022.762402372769</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J33" t="n">
-        <v>175.0691963307609</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K33" t="n">
-        <v>489.6601924881446</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="L33" t="n">
-        <v>969.9100861217186</v>
+        <v>326.6322537197377</v>
       </c>
       <c r="M33" t="n">
-        <v>1562.111378344609</v>
+        <v>945.1977425644552</v>
       </c>
       <c r="N33" t="n">
         <v>1593.529722307103</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J34" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K34" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L34" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M34" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N34" t="n">
-        <v>2973.892135252363</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O34" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P34" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q34" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R34" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S34" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T34" t="n">
-        <v>3251.211441552916</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="U34" t="n">
-        <v>2964.045791010925</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="V34" t="n">
-        <v>2703.310486569348</v>
+        <v>474.8723246204675</v>
       </c>
       <c r="W34" t="n">
-        <v>2532.930592719927</v>
+        <v>474.8723246204675</v>
       </c>
       <c r="X34" t="n">
-        <v>2532.930592719927</v>
+        <v>243.6198605158433</v>
       </c>
       <c r="Y34" t="n">
-        <v>2532.930592719927</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2043.81787311681</v>
+        <v>1389.967748693803</v>
       </c>
       <c r="C35" t="n">
-        <v>1661.884114449617</v>
+        <v>1008.033990026611</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.06014967684</v>
+        <v>1008.033990026611</v>
       </c>
       <c r="E35" t="n">
-        <v>894.2744297829473</v>
+        <v>613.2482701327174</v>
       </c>
       <c r="F35" t="n">
-        <v>480.1232390931177</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="G35" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H35" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="I35" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J35" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K35" t="n">
-        <v>586.0546590956335</v>
+        <v>586.0546590956333</v>
       </c>
       <c r="L35" t="n">
-        <v>1089.376830460403</v>
+        <v>1089.376830460402</v>
       </c>
       <c r="M35" t="n">
-        <v>1655.569384264475</v>
+        <v>1655.569384264474</v>
       </c>
       <c r="N35" t="n">
         <v>2209.652697130949</v>
@@ -6961,28 +6961,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R35" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S35" t="n">
-        <v>3218.096678133435</v>
+        <v>3086.883363249284</v>
       </c>
       <c r="T35" t="n">
-        <v>2998.137015546573</v>
+        <v>2866.923700662422</v>
       </c>
       <c r="U35" t="n">
-        <v>2743.332077363267</v>
+        <v>2612.118762479116</v>
       </c>
       <c r="V35" t="n">
-        <v>2406.352803259208</v>
+        <v>2275.139488375058</v>
       </c>
       <c r="W35" t="n">
-        <v>2043.81787311681</v>
+        <v>2165.539744596472</v>
       </c>
       <c r="X35" t="n">
-        <v>2043.81787311681</v>
+        <v>1783.509604117965</v>
       </c>
       <c r="Y35" t="n">
-        <v>2043.81787311681</v>
+        <v>1389.967748693803</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J36" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K36" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="L36" t="n">
-        <v>545.2741224646322</v>
+        <v>655.3190899643348</v>
       </c>
       <c r="M36" t="n">
-        <v>1163.83961130935</v>
+        <v>1273.884578809052</v>
       </c>
       <c r="N36" t="n">
-        <v>1812.171591051997</v>
+        <v>1922.2165585517</v>
       </c>
       <c r="O36" t="n">
-        <v>2329.760459016175</v>
+        <v>2439.805426515878</v>
       </c>
       <c r="P36" t="n">
-        <v>2513.850170066159</v>
+        <v>2439.805426515878</v>
       </c>
       <c r="Q36" t="n">
         <v>2513.850170066159</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>234.640198369378</v>
+        <v>418.9594913648601</v>
       </c>
       <c r="C37" t="n">
-        <v>65.02422883105832</v>
+        <v>418.9594913648601</v>
       </c>
       <c r="D37" t="n">
-        <v>65.02422883105832</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="E37" t="n">
-        <v>65.02422883105832</v>
+        <v>385.9738346740839</v>
       </c>
       <c r="F37" t="n">
-        <v>65.02422883105832</v>
+        <v>233.4931796998611</v>
       </c>
       <c r="G37" t="n">
         <v>65.02422883105832</v>
@@ -7104,43 +7104,43 @@
         <v>316.2553555288283</v>
       </c>
       <c r="M37" t="n">
-        <v>503.5072346319943</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N37" t="n">
-        <v>689.541140047875</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O37" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="U37" t="n">
-        <v>966.860446348428</v>
+        <v>679.6947958064375</v>
       </c>
       <c r="V37" t="n">
-        <v>966.860446348428</v>
+        <v>418.9594913648601</v>
       </c>
       <c r="W37" t="n">
-        <v>871.483189966105</v>
+        <v>418.9594913648601</v>
       </c>
       <c r="X37" t="n">
-        <v>640.2307258614808</v>
+        <v>418.9594913648601</v>
       </c>
       <c r="Y37" t="n">
-        <v>418.1955670537578</v>
+        <v>418.9594913648601</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2366.346934153518</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="C38" t="n">
-        <v>1984.413175486326</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="D38" t="n">
-        <v>1611.589210713549</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.803490819656</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F38" t="n">
-        <v>802.6523001298265</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G38" t="n">
-        <v>387.5532898677671</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H38" t="n">
         <v>65.02422883105832</v>
@@ -7198,28 +7198,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R38" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S38" t="n">
-        <v>3086.883363249284</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T38" t="n">
-        <v>2866.923700662423</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.923700662423</v>
+        <v>2584.609317459249</v>
       </c>
       <c r="V38" t="n">
-        <v>2866.923700662423</v>
+        <v>2458.675685097528</v>
       </c>
       <c r="W38" t="n">
-        <v>2760.390473671538</v>
+        <v>2458.675685097528</v>
       </c>
       <c r="X38" t="n">
-        <v>2760.390473671538</v>
+        <v>2076.645544619022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.390473671538</v>
+        <v>1683.103689194859</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J39" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K39" t="n">
-        <v>65.02422883105832</v>
+        <v>489.6601924881447</v>
       </c>
       <c r="L39" t="n">
-        <v>545.2741224646322</v>
+        <v>492.6385617161667</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.83961130935</v>
+        <v>1111.204050560884</v>
       </c>
       <c r="N39" t="n">
-        <v>1812.171591051997</v>
+        <v>1759.536030303532</v>
       </c>
       <c r="O39" t="n">
-        <v>2329.760459016175</v>
+        <v>2277.12489826771</v>
       </c>
       <c r="P39" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q39" t="n">
         <v>2513.850170066159</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.02422883105832</v>
+        <v>209.983025639457</v>
       </c>
       <c r="C40" t="n">
         <v>65.02422883105832</v>
@@ -7362,22 +7362,22 @@
         <v>966.860446348428</v>
       </c>
       <c r="T40" t="n">
-        <v>735.6076290620451</v>
+        <v>966.860446348428</v>
       </c>
       <c r="U40" t="n">
-        <v>448.4419785200548</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="V40" t="n">
-        <v>187.7066740784774</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="W40" t="n">
-        <v>187.7066740784774</v>
+        <v>393.5383943238368</v>
       </c>
       <c r="X40" t="n">
-        <v>65.02422883105832</v>
+        <v>393.5383943238368</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.02422883105832</v>
+        <v>393.5383943238368</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>805.6116409131837</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="C41" t="n">
-        <v>423.677882245991</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="D41" t="n">
-        <v>50.85391747321462</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="E41" t="n">
-        <v>50.85391747321462</v>
+        <v>880.1041184251036</v>
       </c>
       <c r="F41" t="n">
-        <v>50.85391747321462</v>
+        <v>465.9529277352739</v>
       </c>
       <c r="G41" t="n">
         <v>50.85391747321462</v>
@@ -7414,22 +7414,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K41" t="n">
-        <v>416.287090108508</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="L41" t="n">
-        <v>919.609261473277</v>
+        <v>554.1760888379836</v>
       </c>
       <c r="M41" t="n">
-        <v>1485.801815277349</v>
+        <v>1120.368642642056</v>
       </c>
       <c r="N41" t="n">
-        <v>2039.885128143824</v>
+        <v>1674.45195550853</v>
       </c>
       <c r="O41" t="n">
-        <v>2510.84729920899</v>
+        <v>2145.414126573697</v>
       </c>
       <c r="P41" t="n">
-        <v>2542.695873660731</v>
+        <v>2341.897157352074</v>
       </c>
       <c r="Q41" t="n">
         <v>2542.695873660731</v>
@@ -7438,25 +7438,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2378.367795357099</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T41" t="n">
-        <v>2378.367795357099</v>
+        <v>2322.73621107387</v>
       </c>
       <c r="U41" t="n">
-        <v>2378.367795357099</v>
+        <v>2067.931272890564</v>
       </c>
       <c r="V41" t="n">
-        <v>2041.38852125304</v>
+        <v>2067.931272890564</v>
       </c>
       <c r="W41" t="n">
-        <v>1678.853591110641</v>
+        <v>2062.475233261178</v>
       </c>
       <c r="X41" t="n">
-        <v>1296.823450632135</v>
+        <v>2062.475233261178</v>
       </c>
       <c r="Y41" t="n">
-        <v>1199.655180431203</v>
+        <v>1668.933377837016</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>50.85391747321462</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="K42" t="n">
-        <v>50.85391747321462</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="L42" t="n">
-        <v>531.1038111067886</v>
+        <v>509.1643694209629</v>
       </c>
       <c r="M42" t="n">
-        <v>950.0421822182283</v>
+        <v>1127.72985826568</v>
       </c>
       <c r="N42" t="n">
-        <v>1579.359410949259</v>
+        <v>1757.047086996711</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.948278913437</v>
+        <v>2274.635954960889</v>
       </c>
       <c r="P42" t="n">
-        <v>2499.679858708315</v>
+        <v>2274.635954960889</v>
       </c>
       <c r="Q42" t="n">
         <v>2499.679858708315</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>526.0224351579946</v>
+        <v>511.7711089080954</v>
       </c>
       <c r="C43" t="n">
-        <v>356.4064656196748</v>
+        <v>511.7711089080954</v>
       </c>
       <c r="D43" t="n">
-        <v>203.3345724474375</v>
+        <v>358.6992157358581</v>
       </c>
       <c r="E43" t="n">
-        <v>203.3345724474375</v>
+        <v>358.6992157358581</v>
       </c>
       <c r="F43" t="n">
-        <v>50.85391747321462</v>
+        <v>206.2185607616352</v>
       </c>
       <c r="G43" t="n">
-        <v>50.85391747321462</v>
+        <v>206.2185607616352</v>
       </c>
       <c r="H43" t="n">
         <v>50.85391747321462</v>
@@ -7593,28 +7593,28 @@
         <v>952.6901349905843</v>
       </c>
       <c r="R43" t="n">
-        <v>952.6901349905843</v>
+        <v>823.4378603096488</v>
       </c>
       <c r="S43" t="n">
-        <v>952.6901349905843</v>
+        <v>823.4378603096488</v>
       </c>
       <c r="T43" t="n">
-        <v>952.6901349905843</v>
+        <v>592.185043023266</v>
       </c>
       <c r="U43" t="n">
-        <v>952.6901349905843</v>
+        <v>592.185043023266</v>
       </c>
       <c r="V43" t="n">
-        <v>952.6901349905843</v>
+        <v>511.7711089080954</v>
       </c>
       <c r="W43" t="n">
-        <v>931.6129626500973</v>
+        <v>511.7711089080954</v>
       </c>
       <c r="X43" t="n">
-        <v>931.6129626500973</v>
+        <v>511.7711089080954</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.5778038423744</v>
+        <v>511.7711089080954</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>880.1041184251036</v>
+        <v>1656.823596986189</v>
       </c>
       <c r="C44" t="n">
-        <v>880.1041184251036</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="D44" t="n">
-        <v>880.1041184251036</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="E44" t="n">
         <v>880.1041184251036</v>
@@ -7648,25 +7648,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>50.85391747321462</v>
+        <v>206.4511751024964</v>
       </c>
       <c r="K44" t="n">
-        <v>78.33780751210526</v>
+        <v>571.8843477377898</v>
       </c>
       <c r="L44" t="n">
-        <v>581.6599788768742</v>
+        <v>1075.206519102559</v>
       </c>
       <c r="M44" t="n">
-        <v>1147.852532680946</v>
+        <v>1641.399072906631</v>
       </c>
       <c r="N44" t="n">
-        <v>1701.935845547421</v>
+        <v>1641.399072906631</v>
       </c>
       <c r="O44" t="n">
-        <v>2172.898016612587</v>
+        <v>2112.361243971797</v>
       </c>
       <c r="P44" t="n">
-        <v>2542.695873660731</v>
+        <v>2482.159101019941</v>
       </c>
       <c r="Q44" t="n">
         <v>2542.695873660731</v>
@@ -7684,16 +7684,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="V44" t="n">
-        <v>2205.716599556672</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W44" t="n">
-        <v>2049.719653845792</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X44" t="n">
-        <v>1667.689513367285</v>
+        <v>2444.408991928371</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.147657943123</v>
+        <v>2050.867136504209</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="K45" t="n">
-        <v>103.4544203980626</v>
+        <v>475.489881130301</v>
       </c>
       <c r="L45" t="n">
-        <v>106.4327896260846</v>
+        <v>478.468250358323</v>
       </c>
       <c r="M45" t="n">
-        <v>724.9982784708021</v>
+        <v>1097.033739203041</v>
       </c>
       <c r="N45" t="n">
-        <v>1354.315507201833</v>
+        <v>1726.350967934071</v>
       </c>
       <c r="O45" t="n">
-        <v>1871.904375166011</v>
+        <v>2243.939835898249</v>
       </c>
       <c r="P45" t="n">
         <v>2274.635954960889</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.9432060158807</v>
+        <v>372.4789012502155</v>
       </c>
       <c r="C46" t="n">
-        <v>260.9432060158807</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="D46" t="n">
-        <v>260.9432060158807</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="E46" t="n">
-        <v>260.9432060158807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F46" t="n">
-        <v>260.9432060158807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>260.9432060158807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>105.5785627274601</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
         <v>50.85391747321462</v>
@@ -7842,16 +7842,16 @@
         <v>952.6901349905843</v>
       </c>
       <c r="V46" t="n">
-        <v>952.6901349905843</v>
+        <v>691.9548305490068</v>
       </c>
       <c r="W46" t="n">
-        <v>666.5337335079835</v>
+        <v>691.9548305490068</v>
       </c>
       <c r="X46" t="n">
-        <v>666.5337335079835</v>
+        <v>460.7023664443826</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.4985747002605</v>
+        <v>460.7023664443826</v>
       </c>
     </row>
   </sheetData>
@@ -8057,25 +8057,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>260.5781121823764</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>552.3412859060218</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8297,13 +8297,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N6" t="n">
         <v>623.1450866466196</v>
@@ -8312,7 +8312,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>196.5733747639883</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8534,10 +8534,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>253.0836423644577</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>101.168162993945</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8780,7 +8780,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>375.7567956927521</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8944,7 +8944,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229282</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9005,16 +9005,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>420.1560502616111</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120005</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,7 +9245,7 @@
         <v>52.76181311454911</v>
       </c>
       <c r="K18" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9254,13 +9254,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>84.52603118977298</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>193.151226762328</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>45.78339956425417</v>
@@ -9479,16 +9479,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>52.76181311454911</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>26.03612512909586</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>11.7993616677001</v>
       </c>
       <c r="M21" t="n">
-        <v>384.5662104054095</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9497,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>7.202023681536417</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,13 +9719,13 @@
         <v>52.76181311454911</v>
       </c>
       <c r="K24" t="n">
-        <v>26.03612512909585</v>
+        <v>183.2852610421555</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>193.151226762328</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>52.76181311454911</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>26.03612512909585</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>11.7993616677001</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9971,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>193.151226762328</v>
+        <v>7.202023681536417</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10120,7 +10120,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M29" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N29" t="n">
         <v>568.5510017355793</v>
@@ -10132,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10190,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>52.76181311454911</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>26.03612512909585</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>193.151226762328</v>
+        <v>19.00138534923655</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454911</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>26.03612512909585</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>261.2420764249064</v>
       </c>
       <c r="M33" t="n">
-        <v>578.7860812367902</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>26.03612512909584</v>
+        <v>26.03612512909585</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>193.151226762328</v>
+        <v>7.202023681536417</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.78339956425415</v>
+        <v>120.5760698170633</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>26.03612512909584</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10919,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>193.151226762328</v>
+        <v>19.00138534923606</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11062,7 +11062,7 @@
         <v>62.65665262341128</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>52.26461953918751</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11077,10 +11077,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>76.97540890938919</v>
+        <v>243.2728395423555</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.18250168751544</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11138,16 +11138,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>26.03612512909584</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>348.7748638586098</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7730296090626</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>603.9382674429663</v>
@@ -11156,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>7.202023681536389</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>62.65665262341128</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>80.02612462897602</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11308,7 +11308,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>8.870887729039453</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.18250168751544</v>
+        <v>134.3307568802325</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>79.16794626530591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>603.9382674429663</v>
+        <v>603.9382674429662</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>38.20820455288973</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>134.9454774395932</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>40.46798034348086</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>95.09227202098414</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.7032501671847</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>230.1151168515673</v>
@@ -23478,7 +23478,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.36722604734405</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -23503,16 +23503,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>140.455413071186</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>76.78682024867165</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>36.75563442278239</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.2556384040709</v>
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23721,7 +23721,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23752,7 +23752,7 @@
         <v>319.3037704263417</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.23435056966956</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8123807723352</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2568888014727</v>
+        <v>76.02500016446621</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23901,13 +23901,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.7842613601147</v>
       </c>
       <c r="H19" t="n">
-        <v>3.478658159722784</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I19" t="n">
         <v>129.3398629429739</v>
@@ -23940,7 +23940,7 @@
         <v>127.959751934126</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T19" t="n">
         <v>228.9402891135191</v>
@@ -23952,13 +23952,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>20.95154380633872</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>189.6349270921685</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.625961063857403</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>70.7848229021435</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24138,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.8109968555364</v>
@@ -24180,22 +24180,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>161.8392166728302</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.177633265863221</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>265.9507592779651</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J25" t="n">
         <v>27.90397835000485</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.7812841491240761</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T25" t="n">
-        <v>118.5936421725176</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>161.8392166728302</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H26" t="n">
         <v>319.3037704263417</v>
       </c>
       <c r="I26" t="n">
-        <v>63.40358756646756</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2568888014727</v>
+        <v>239.5533633965537</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20.95154380633895</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24612,7 +24612,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.7842613601147</v>
@@ -24648,28 +24648,28 @@
         <v>0.7812841491240761</v>
       </c>
       <c r="R28" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>244.8808465293474</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>26.03280155970151</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>207.1748529479341</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>11.24634681577928</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H31" t="n">
         <v>153.8109968555364</v>
@@ -24888,16 +24888,16 @@
         <v>127.959751934126</v>
       </c>
       <c r="S31" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>228.9402891135191</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.354989675336128</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U32" t="n">
-        <v>221.3635819517307</v>
+        <v>118.2178390870411</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25128,22 +25128,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T34" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>114.6187425568476</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>43.00513185170857</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H35" t="n">
         <v>319.3037704263417</v>
       </c>
       <c r="I35" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.23435056966955</v>
       </c>
       <c r="S35" t="n">
-        <v>157.1355323049783</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>250.4058345001754</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>118.8853741166465</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.8109968555364</v>
@@ -25335,7 +25335,7 @@
         <v>129.3398629429739</v>
       </c>
       <c r="J37" t="n">
-        <v>27.90397835000484</v>
+        <v>27.90397835000485</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7812841491240619</v>
+        <v>0.7812841491240761</v>
       </c>
       <c r="R37" t="n">
         <v>127.959751934126</v>
@@ -25368,19 +25368,19 @@
         <v>228.9402891135191</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8713536492751</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I38" t="n">
         <v>132.732122105711</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>208.9351853249149</v>
       </c>
       <c r="W38" t="n">
-        <v>253.4416861199989</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>24.4106010026218</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25602,19 +25602,19 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>107.4843186686331</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>319.3037704263417</v>
@@ -25678,25 +25678,25 @@
         <v>27.23435056966954</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>353.5081016078829</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>293.4098493709976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>129.3398629429739</v>
@@ -25833,28 +25833,28 @@
         <v>0.7812841491240619</v>
       </c>
       <c r="R43" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>203.7950511593192</v>
       </c>
       <c r="T43" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>178.5181566231427</v>
       </c>
       <c r="W43" t="n">
-        <v>262.4284368506928</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>252.2568888014727</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>204.4726045872029</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>280.9058261586846</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>94.37858445531054</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26040,10 +26040,10 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I46" t="n">
-        <v>75.16246414127087</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J46" t="n">
         <v>27.90397835000484</v>
@@ -26082,16 +26082,16 @@
         <v>284.2939940365704</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609494.695047149</v>
+        <v>609494.6950471487</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677528.2541920966</v>
+        <v>677528.2541920968</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677528.2541920968</v>
+        <v>677528.2541920966</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677528.2541920966</v>
+        <v>677528.2541920965</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677528.2541920968</v>
+        <v>677528.2541920966</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677528.2541920965</v>
+        <v>677528.2541920966</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610305.2827057383</v>
+        <v>610305.2827057382</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>537336.8423459274</v>
+      </c>
+      <c r="C2" t="n">
         <v>537336.8423459273</v>
-      </c>
-      <c r="C2" t="n">
-        <v>537336.8423459271</v>
       </c>
       <c r="D2" t="n">
         <v>537336.8423459273</v>
@@ -26325,37 +26325,37 @@
         <v>353444.0843231675</v>
       </c>
       <c r="F2" t="n">
-        <v>353444.0843231675</v>
+        <v>353444.0843231676</v>
       </c>
       <c r="G2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="H2" t="n">
-        <v>401518.1513719921</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="I2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="J2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="K2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719925</v>
       </c>
       <c r="L2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="M2" t="n">
-        <v>401518.1513719923</v>
+        <v>401518.1513719924</v>
       </c>
       <c r="N2" t="n">
-        <v>401518.1513719924</v>
+        <v>401518.1513719925</v>
       </c>
       <c r="O2" t="n">
         <v>363216.1228548395</v>
       </c>
       <c r="P2" t="n">
-        <v>363216.1228548397</v>
+        <v>363216.1228548398</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167097.7572668309</v>
+        <v>167097.757266831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689659</v>
+        <v>27504.83665689651</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>264201.4764986496</v>
       </c>
       <c r="E4" t="n">
-        <v>79813.69145146925</v>
+        <v>79813.69145146926</v>
       </c>
       <c r="F4" t="n">
-        <v>79813.69145146925</v>
+        <v>79813.69145146926</v>
       </c>
       <c r="G4" t="n">
         <v>75825.41318147432</v>
@@ -26438,7 +26438,7 @@
         <v>75825.41318147432</v>
       </c>
       <c r="I4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="J4" t="n">
         <v>75825.41318147432</v>
@@ -26447,19 +26447,19 @@
         <v>75825.41318147432</v>
       </c>
       <c r="L4" t="n">
-        <v>75825.4131814743</v>
+        <v>75825.41318147432</v>
       </c>
       <c r="M4" t="n">
         <v>75825.41318147432</v>
       </c>
       <c r="N4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="O4" t="n">
+        <v>65971.74222475353</v>
+      </c>
+      <c r="P4" t="n">
         <v>65971.74222475351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65971.74222475353</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230469</v>
       </c>
       <c r="G5" t="n">
         <v>54813.65170289689</v>
@@ -26502,7 +26502,7 @@
         <v>54813.65170289689</v>
       </c>
       <c r="M5" t="n">
-        <v>54813.6517028969</v>
+        <v>54813.65170289689</v>
       </c>
       <c r="N5" t="n">
         <v>54813.6517028969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31528.14649283892</v>
+        <v>31528.14649283898</v>
       </c>
       <c r="C6" t="n">
-        <v>207569.3312103662</v>
+        <v>207569.3312103663</v>
       </c>
       <c r="D6" t="n">
         <v>207569.3312103663</v>
       </c>
       <c r="E6" t="n">
-        <v>123624.3237600923</v>
+        <v>117056.7252592796</v>
       </c>
       <c r="F6" t="n">
-        <v>232910.1904093936</v>
+        <v>226342.5919085808</v>
       </c>
       <c r="G6" t="n">
-        <v>103781.3292207901</v>
+        <v>98930.66168600679</v>
       </c>
       <c r="H6" t="n">
-        <v>270879.086487621</v>
+        <v>266028.4189528378</v>
       </c>
       <c r="I6" t="n">
-        <v>270879.0864876211</v>
+        <v>266028.4189528378</v>
       </c>
       <c r="J6" t="n">
-        <v>133436.655695844</v>
+        <v>128585.9881610607</v>
       </c>
       <c r="K6" t="n">
-        <v>270879.0864876211</v>
+        <v>266028.4189528379</v>
       </c>
       <c r="L6" t="n">
-        <v>270879.0864876211</v>
+        <v>266028.4189528378</v>
       </c>
       <c r="M6" t="n">
-        <v>243374.2498307245</v>
+        <v>238523.5822959412</v>
       </c>
       <c r="N6" t="n">
-        <v>270879.0864876212</v>
+        <v>266028.4189528379</v>
       </c>
       <c r="O6" t="n">
-        <v>253200.1655591504</v>
+        <v>246981.5684344686</v>
       </c>
       <c r="P6" t="n">
-        <v>253200.1655591505</v>
+        <v>246981.5684344689</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="G3" t="n">
         <v>247.4879720776409</v>
@@ -26770,7 +26770,7 @@
         <v>247.4879720776409</v>
       </c>
       <c r="M3" t="n">
-        <v>247.487972077641</v>
+        <v>247.4879720776409</v>
       </c>
       <c r="N3" t="n">
         <v>247.487972077641</v>
@@ -26801,7 +26801,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="G4" t="n">
         <v>812.802860388229</v>
@@ -26822,7 +26822,7 @@
         <v>812.802860388229</v>
       </c>
       <c r="M4" t="n">
-        <v>812.8028603882291</v>
+        <v>812.802860388229</v>
       </c>
       <c r="N4" t="n">
         <v>812.8028603882291</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>177.1288919730463</v>
+        <v>177.1288919730462</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501926</v>
+        <v>110.3707671501923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>177.1288919730463</v>
+        <v>177.1288919730462</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>128.0878337591854</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27390,13 +27390,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>56.12508933520508</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>116.9634078107694</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>57.60636999204328</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27599,13 +27599,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>58.58628301111111</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>18.08562434051996</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27627,7 +27627,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>37.59489914492042</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>209.4728969320364</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>138.912387672888</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27788,13 +27788,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>148.5150608459572</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>140.324413399462</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>232.4885327592588</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27903,7 +27903,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>56.02967134200424</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27912,16 +27912,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.50770056809695</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>42.24092077382167</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>64.10510978084099</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>19.43647763297655</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,31 +31834,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
         <v>26.08660970927058</v>
@@ -31867,13 +31867,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549335</v>
@@ -31925,34 +31925,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H14" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N15" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q15" t="n">
         <v>26.08660970927058</v>
@@ -32104,13 +32104,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J16" t="n">
         <v>12.11303823549335</v>
@@ -32162,34 +32162,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9949265209151386</v>
+        <v>0.9949265209151387</v>
       </c>
       <c r="H20" t="n">
         <v>10.18929123232217</v>
@@ -32478,7 +32478,7 @@
         <v>126.5583844348592</v>
       </c>
       <c r="L20" t="n">
-        <v>157.0068669493158</v>
+        <v>157.0068669493159</v>
       </c>
       <c r="M20" t="n">
         <v>174.7003914656405</v>
@@ -32493,7 +32493,7 @@
         <v>143.0716773657482</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.4408713354747</v>
+        <v>107.4408713354748</v>
       </c>
       <c r="R20" t="n">
         <v>62.49755306943563</v>
@@ -32502,7 +32502,7 @@
         <v>22.67188809535374</v>
       </c>
       <c r="T20" t="n">
-        <v>4.355290845306021</v>
+        <v>4.355290845306022</v>
       </c>
       <c r="U20" t="n">
         <v>0.07959412167321107</v>
@@ -32551,13 +32551,13 @@
         <v>18.3281186868819</v>
       </c>
       <c r="J21" t="n">
-        <v>50.29375855211758</v>
+        <v>50.29375855211759</v>
       </c>
       <c r="K21" t="n">
-        <v>85.96004403757081</v>
+        <v>85.96004403757082</v>
       </c>
       <c r="L21" t="n">
-        <v>115.5838873368265</v>
+        <v>115.5838873368266</v>
       </c>
       <c r="M21" t="n">
         <v>134.8809447823143</v>
@@ -32566,7 +32566,7 @@
         <v>138.4508420399248</v>
       </c>
       <c r="O21" t="n">
-        <v>126.6554718990168</v>
+        <v>126.6554718990169</v>
       </c>
       <c r="P21" t="n">
         <v>101.6521823426069</v>
@@ -32575,16 +32575,16 @@
         <v>67.95179188063832</v>
       </c>
       <c r="R21" t="n">
-        <v>33.05131823331213</v>
+        <v>33.05131823331214</v>
       </c>
       <c r="S21" t="n">
-        <v>9.887844922158571</v>
+        <v>9.887844922158573</v>
       </c>
       <c r="T21" t="n">
         <v>2.145674022069358</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03502188284117561</v>
+        <v>0.03502188284117562</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4462897857137786</v>
+        <v>0.4462897857137787</v>
       </c>
       <c r="H22" t="n">
-        <v>3.967921912982507</v>
+        <v>3.967921912982508</v>
       </c>
       <c r="I22" t="n">
-        <v>13.42115101037436</v>
+        <v>13.42115101037437</v>
       </c>
       <c r="J22" t="n">
         <v>31.55268784996415</v>
@@ -32642,22 +32642,22 @@
         <v>69.95795250056986</v>
       </c>
       <c r="N22" t="n">
-        <v>68.29450875381855</v>
+        <v>68.29450875381856</v>
       </c>
       <c r="O22" t="n">
         <v>63.08103262070757</v>
       </c>
       <c r="P22" t="n">
-        <v>53.97672099214644</v>
+        <v>53.97672099214645</v>
       </c>
       <c r="Q22" t="n">
         <v>37.37068378372378</v>
       </c>
       <c r="R22" t="n">
-        <v>20.06681163763953</v>
+        <v>20.06681163763954</v>
       </c>
       <c r="S22" t="n">
-        <v>7.777613811030121</v>
+        <v>7.777613811030122</v>
       </c>
       <c r="T22" t="n">
         <v>1.906874538958872</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.9949265209151387</v>
       </c>
       <c r="H35" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I35" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758092</v>
       </c>
       <c r="J35" t="n">
-        <v>84.44314480452135</v>
+        <v>84.44314480452132</v>
       </c>
       <c r="K35" t="n">
         <v>126.5583844348592</v>
@@ -33669,7 +33669,7 @@
         <v>174.7003914656405</v>
       </c>
       <c r="N35" t="n">
-        <v>177.5272264431907</v>
+        <v>177.5272264431906</v>
       </c>
       <c r="O35" t="n">
         <v>167.6339258508407</v>
@@ -33681,16 +33681,16 @@
         <v>107.4408713354748</v>
       </c>
       <c r="R35" t="n">
-        <v>62.49755306943565</v>
+        <v>62.49755306943563</v>
       </c>
       <c r="S35" t="n">
-        <v>22.67188809535375</v>
+        <v>22.67188809535374</v>
       </c>
       <c r="T35" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306022</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0795941216732111</v>
+        <v>0.07959412167321107</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858692</v>
       </c>
       <c r="H36" t="n">
-        <v>5.141212401084581</v>
+        <v>5.141212401084579</v>
       </c>
       <c r="I36" t="n">
-        <v>18.32811868688191</v>
+        <v>18.3281186868819</v>
       </c>
       <c r="J36" t="n">
-        <v>50.2937585521176</v>
+        <v>50.29375855211759</v>
       </c>
       <c r="K36" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757082</v>
       </c>
       <c r="L36" t="n">
         <v>115.5838873368266</v>
@@ -33748,7 +33748,7 @@
         <v>134.8809447823143</v>
       </c>
       <c r="N36" t="n">
-        <v>138.4508420399249</v>
+        <v>138.4508420399248</v>
       </c>
       <c r="O36" t="n">
         <v>126.6554718990169</v>
@@ -33757,19 +33757,19 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063832</v>
       </c>
       <c r="R36" t="n">
         <v>33.05131823331214</v>
       </c>
       <c r="S36" t="n">
-        <v>9.887844922158575</v>
+        <v>9.887844922158573</v>
       </c>
       <c r="T36" t="n">
         <v>2.145674022069358</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03502188284117563</v>
+        <v>0.03502188284117562</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4462897857137788</v>
+        <v>0.4462897857137787</v>
       </c>
       <c r="H37" t="n">
-        <v>3.967921912982509</v>
+        <v>3.967921912982508</v>
       </c>
       <c r="I37" t="n">
         <v>13.42115101037437</v>
       </c>
       <c r="J37" t="n">
-        <v>31.55268784996416</v>
+        <v>31.55268784996415</v>
       </c>
       <c r="K37" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020082</v>
       </c>
       <c r="L37" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602852</v>
       </c>
       <c r="M37" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056986</v>
       </c>
       <c r="N37" t="n">
-        <v>68.29450875381858</v>
+        <v>68.29450875381856</v>
       </c>
       <c r="O37" t="n">
-        <v>63.08103262070759</v>
+        <v>63.08103262070757</v>
       </c>
       <c r="P37" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214645</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.37068378372379</v>
+        <v>37.37068378372378</v>
       </c>
       <c r="R37" t="n">
         <v>20.06681163763954</v>
       </c>
       <c r="S37" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030122</v>
       </c>
       <c r="T37" t="n">
-        <v>1.906874538958873</v>
+        <v>1.906874538958872</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0243430792207516</v>
+        <v>0.02434307922075159</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>148.5819430157097</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>436.8573833443818</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -35017,13 +35017,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N6" t="n">
         <v>516.4299455789112</v>
@@ -35032,7 +35032,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>87.71916873984496</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>140.5082087933099</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35272,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
         <v>450.3053724474507</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>17.42030366054514</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35500,7 +35500,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>322.1927633781374</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
         <v>444.7844470457648</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
         <v>450.3053724474507</v>
@@ -35664,7 +35664,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491372</v>
+        <v>285.386553349138</v>
       </c>
       <c r="Q14" t="n">
         <v>136.6325338001977</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K15" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9531295291604</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323168999</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L18" t="n">
         <v>485.1009026601757</v>
@@ -35974,13 +35974,13 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N18" t="n">
-        <v>654.8807876188359</v>
+        <v>116.2617321619895</v>
       </c>
       <c r="O18" t="n">
         <v>522.817038347654</v>
       </c>
       <c r="P18" t="n">
-        <v>185.9492030807916</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L21" t="n">
-        <v>485.1009026601757</v>
+        <v>14.80781543337888</v>
       </c>
       <c r="M21" t="n">
-        <v>403.9632526260839</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N21" t="n">
-        <v>654.8807876188359</v>
+        <v>654.8807876188361</v>
       </c>
       <c r="O21" t="n">
-        <v>522.817038347654</v>
+        <v>522.8170383476541</v>
       </c>
       <c r="P21" t="n">
-        <v>406.7995755503819</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>157.2491359130597</v>
       </c>
       <c r="L24" t="n">
         <v>485.1009026601757</v>
       </c>
       <c r="M24" t="n">
-        <v>624.8136250956743</v>
+        <v>19.39704222067439</v>
       </c>
       <c r="N24" t="n">
         <v>654.8807876188361</v>
@@ -36454,10 +36454,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P24" t="n">
-        <v>185.9492030807916</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L27" t="n">
-        <v>485.1009026601757</v>
+        <v>14.80781543337888</v>
       </c>
       <c r="M27" t="n">
         <v>624.8136250956743</v>
@@ -36691,10 +36691,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P27" t="n">
-        <v>185.9492030807916</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>508.4062337017868</v>
       </c>
       <c r="M29" t="n">
-        <v>571.9116705091635</v>
+        <v>571.9116705091636</v>
       </c>
       <c r="N29" t="n">
         <v>559.6801140065398</v>
@@ -36852,7 +36852,7 @@
         <v>373.5331889375191</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703604</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L30" t="n">
-        <v>485.1009026601757</v>
+        <v>3.00845376567878</v>
       </c>
       <c r="M30" t="n">
         <v>624.8136250956743</v>
@@ -36928,10 +36928,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P30" t="n">
-        <v>185.9492030807916</v>
+        <v>11.79936166770013</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>317.7686829872563</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>485.1009026601757</v>
+        <v>264.2505301905852</v>
       </c>
       <c r="M33" t="n">
-        <v>598.1831234574646</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N33" t="n">
-        <v>31.73570097221651</v>
+        <v>654.8807876188361</v>
       </c>
       <c r="O33" t="n">
         <v>522.8170383476541</v>
@@ -37308,22 +37308,22 @@
         <v>157.1689471002846</v>
       </c>
       <c r="K35" t="n">
-        <v>369.1244168033267</v>
+        <v>369.1244168033266</v>
       </c>
       <c r="L35" t="n">
         <v>508.4062337017868</v>
       </c>
       <c r="M35" t="n">
-        <v>571.9116705091637</v>
+        <v>571.9116705091636</v>
       </c>
       <c r="N35" t="n">
-        <v>559.68011400654</v>
+        <v>559.6801140065398</v>
       </c>
       <c r="O35" t="n">
-        <v>475.7193647122892</v>
+        <v>475.7193647122891</v>
       </c>
       <c r="P35" t="n">
-        <v>373.5331889375192</v>
+        <v>373.5331889375191</v>
       </c>
       <c r="Q35" t="n">
         <v>202.8269861703606</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P36" t="n">
-        <v>185.9492030807916</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.79267025280915</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468911</v>
       </c>
       <c r="L37" t="n">
         <v>167.9744321215432</v>
@@ -37481,7 +37481,7 @@
         <v>162.5392614042325</v>
       </c>
       <c r="P37" t="n">
-        <v>117.5812500104675</v>
+        <v>117.5812500104674</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.8269861703604</v>
+        <v>202.8269861703606</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>317.7686829872564</v>
       </c>
       <c r="L39" t="n">
-        <v>485.1009026601757</v>
+        <v>3.008453765678809</v>
       </c>
       <c r="M39" t="n">
         <v>624.8136250956743</v>
@@ -37639,10 +37639,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P39" t="n">
-        <v>185.9492030807916</v>
+        <v>11.79936166769967</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>369.1244168033267</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>508.4062337017868</v>
@@ -37797,10 +37797,10 @@
         <v>475.7193647122892</v>
       </c>
       <c r="P41" t="n">
-        <v>32.17027722398092</v>
+        <v>198.4677078569472</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.8269861703606</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>485.1009026601757</v>
+        <v>351.7833176242886</v>
       </c>
       <c r="M42" t="n">
-        <v>423.170071829737</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N42" t="n">
         <v>635.6739684151828</v>
@@ -37876,10 +37876,10 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P42" t="n">
-        <v>406.7995755503819</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>157.1689471002846</v>
       </c>
       <c r="K44" t="n">
-        <v>27.76150508978852</v>
+        <v>369.1244168033267</v>
       </c>
       <c r="L44" t="n">
         <v>508.4062337017868</v>
@@ -38028,7 +38028,7 @@
         <v>571.9116705091637</v>
       </c>
       <c r="N44" t="n">
-        <v>559.68011400654</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>475.7193647122892</v>
@@ -38037,7 +38037,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>61.14825519271704</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K45" t="n">
-        <v>53.13182113621009</v>
+        <v>317.7686829872564</v>
       </c>
       <c r="L45" t="n">
         <v>3.008453765678809</v>
@@ -38113,7 +38113,7 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P45" t="n">
-        <v>406.7995755503819</v>
+        <v>31.00618087135334</v>
       </c>
       <c r="Q45" t="n">
         <v>227.3170744923497</v>
